--- a/Logbook/Logbook_Fadly_Triansyah.xlsx
+++ b/Logbook/Logbook_Fadly_Triansyah.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
   <si>
     <t>Hari/tanggal</t>
   </si>
@@ -106,6 +106,99 @@
   </si>
   <si>
     <t>Masalah ini terjadi karena saya menggunakan aplikasi yang berbeda dari teman-teman saya</t>
+  </si>
+  <si>
+    <t>Selasa, 6-Maret-2018</t>
+  </si>
+  <si>
+    <t>Mengumpulkan data</t>
+  </si>
+  <si>
+    <t>Waktu yang dibutuhkan cukup banyak</t>
+  </si>
+  <si>
+    <t>Mencari metode pendataan tercepat</t>
+  </si>
+  <si>
+    <t>Masalah ini terjadi karena teknologi yang ingin saya gunakan mengharuskan saya memahami karakteristik dari web yang akan saya ambil datanya</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pekerjaan yang cukup monton</t>
+  </si>
+  <si>
+    <t>Mendengarkan musik, dan menselingkan pekerjaan dengan hiburan lain</t>
+  </si>
+  <si>
+    <t>Masalah ini terjadi karena saya kurang menyukai pekerjaan yang monoton</t>
+  </si>
+  <si>
+    <t>Belajar GIT lebih dalam</t>
+  </si>
+  <si>
+    <t>Tidak terlalu familiar dengan implementasi GIT</t>
+  </si>
+  <si>
+    <t>Masalah ini terjadi karena saya kurang familiar dengan syntax-syntax GIT dan bingung membayangkannya</t>
+  </si>
+  <si>
+    <t>Selasa, 13-Maret-2018</t>
+  </si>
+  <si>
+    <t>Belajar Scrapping PDF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tidak familiar dengan teknologi </t>
+  </si>
+  <si>
+    <t>Masalah ini terjadi karena saya belum pernah mencari tahu dan mencoba tentang scrapping PDF</t>
+  </si>
+  <si>
+    <t>Selasa, 20-Maret-2018</t>
+  </si>
+  <si>
+    <t>Metode yang digunakan memang membutuhkan waktu yang cukup lama</t>
+  </si>
+  <si>
+    <t>Masalah ini terjadi karena web yang saya ambil datanya tidak memungkinkan menggunakan teknologi scrapping</t>
+  </si>
+  <si>
+    <t>Belajar dan mempresentasikan scrapping pdf</t>
+  </si>
+  <si>
+    <t>Mencari, Bertanya dan mencoba sendiri</t>
+  </si>
+  <si>
+    <t>Sabtu, 24-Maret-2018</t>
+  </si>
+  <si>
+    <t>Internet tidak stabil</t>
+  </si>
+  <si>
+    <t>Menunggu dan bersabar</t>
+  </si>
+  <si>
+    <t>Masalah ini terjadi karena ada pembetulan provider</t>
+  </si>
+  <si>
+    <t>Minggu, 25-Maret-2018</t>
+  </si>
+  <si>
+    <t>Ke rumah kaka tingkat yang memiliki internet stabil</t>
+  </si>
+  <si>
+    <t>Senin, 26-Maret-2018</t>
+  </si>
+  <si>
+    <t>Selasa, 27-Maret-2018</t>
+  </si>
+  <si>
+    <t>Belajar memvisualisasikan data dengan Java</t>
+  </si>
+  <si>
+    <t>Belom pernah read/write file menggunakan Java</t>
+  </si>
+  <si>
+    <t>Masalah ini terjadi karena saya memang belum pernah mencoba atau mencari tentang "how to read/write file in Java"</t>
   </si>
 </sst>
 </file>
@@ -114,8 +207,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
@@ -128,14 +221,99 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,25 +327,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,36 +336,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,6 +349,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -225,51 +363,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -280,187 +373,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,11 +567,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,21 +612,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -528,6 +627,15 @@
         <color theme="4"/>
       </top>
       <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -556,27 +664,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -594,134 +687,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -733,6 +826,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1053,18 +1149,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="24.5714285714286" customWidth="1"/>
-    <col min="2" max="2" width="37" customWidth="1"/>
+    <col min="2" max="2" width="45" customWidth="1"/>
     <col min="3" max="3" width="97.5714285714286" customWidth="1"/>
-    <col min="4" max="4" width="40.4285714285714" customWidth="1"/>
+    <col min="4" max="4" width="71.8571428571429" customWidth="1"/>
     <col min="5" max="5" width="138.714285714286" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1182,7 +1278,7 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B8" t="s">
@@ -1198,10 +1294,280 @@
         <v>29</v>
       </c>
     </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3"/>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="3"/>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="C23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="3"/>
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="15">
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/Logbook/Logbook_Fadly_Triansyah.xlsx
+++ b/Logbook/Logbook_Fadly_Triansyah.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72">
   <si>
     <t>Hari/tanggal</t>
   </si>
@@ -199,6 +199,49 @@
   </si>
   <si>
     <t>Masalah ini terjadi karena saya memang belum pernah mencoba atau mencari tentang "how to read/write file in Java"</t>
+  </si>
+  <si>
+    <t>Selasa, 3-April-2018</t>
+  </si>
+  <si>
+    <t>Pembagian dan pemaparan tugas</t>
+  </si>
+  <si>
+    <t>Selasa, 10-April-2018</t>
+  </si>
+  <si>
+    <t>Selasa, 17-April-2018</t>
+  </si>
+  <si>
+    <t>Selasa, 24-April-2018</t>
+  </si>
+  <si>
+    <t>Selasa, 1-Mei-2018</t>
+  </si>
+  <si>
+    <t>Selasa, 8-Mei-2018</t>
+  </si>
+  <si>
+    <t>mencari metode filter terbaik</t>
+  </si>
+  <si>
+    <t>Kamis, 10-Mei-2018</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sketching </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>algoritma untu menyesuaikan data yang ada</t>
+    </r>
+  </si>
+  <si>
+    <t>Selasa, 15-Mei-2018</t>
   </si>
 </sst>
 </file>
@@ -207,11 +250,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,8 +263,92 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,6 +363,21 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
@@ -243,31 +385,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,32 +401,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,51 +414,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -373,19 +424,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,163 +598,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,32 +618,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,15 +644,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -632,11 +653,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -660,6 +687,30 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -669,7 +720,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -687,130 +738,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -827,8 +878,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1149,16 +1200,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A27" sqref="A26:A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="24.5714285714286" customWidth="1"/>
-    <col min="2" max="2" width="45" customWidth="1"/>
+    <col min="2" max="2" width="54.1428571428571" customWidth="1"/>
     <col min="3" max="3" width="97.5714285714286" customWidth="1"/>
     <col min="4" max="4" width="71.8571428571429" customWidth="1"/>
     <col min="5" max="5" width="138.714285714286" customWidth="1"/>
@@ -1295,10 +1346,10 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C9" t="s">
@@ -1312,8 +1363,8 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
       <c r="C10" t="s">
         <v>35</v>
       </c>
@@ -1325,7 +1376,7 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="3"/>
+      <c r="A11" s="1"/>
       <c r="B11" t="s">
         <v>38</v>
       </c>
@@ -1340,7 +1391,7 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B12" t="s">
@@ -1357,8 +1408,8 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C13" t="s">
@@ -1372,8 +1423,8 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
       <c r="C14" t="s">
         <v>35</v>
       </c>
@@ -1385,10 +1436,10 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C15" t="s">
@@ -1402,8 +1453,8 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
       <c r="C16" t="s">
         <v>35</v>
       </c>
@@ -1415,7 +1466,7 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="3"/>
+      <c r="A17" s="1"/>
       <c r="B17" t="s">
         <v>48</v>
       </c>
@@ -1430,10 +1481,10 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C18" t="s">
@@ -1447,8 +1498,8 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
       <c r="C19" t="s">
         <v>51</v>
       </c>
@@ -1460,10 +1511,10 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C20" t="s">
@@ -1477,8 +1528,8 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4"/>
+      <c r="A21" s="1"/>
+      <c r="B21" s="2"/>
       <c r="C21" t="s">
         <v>51</v>
       </c>
@@ -1490,10 +1541,10 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C22" t="s">
@@ -1507,8 +1558,8 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="2"/>
       <c r="C23" t="s">
         <v>51</v>
       </c>
@@ -1520,7 +1571,7 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B24" t="s">
@@ -1537,7 +1588,7 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="3"/>
+      <c r="A25" s="1"/>
       <c r="B25" t="s">
         <v>58</v>
       </c>
@@ -1549,6 +1600,82 @@
       </c>
       <c r="E25" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="3"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3"/>
+      <c r="B33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="3"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/Logbook/Logbook_Fadly_Triansyah.xlsx
+++ b/Logbook/Logbook_Fadly_Triansyah.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79">
   <si>
     <t>Hari/tanggal</t>
   </si>
@@ -201,6 +201,12 @@
     <t>Masalah ini terjadi karena saya memang belum pernah mencoba atau mencari tentang "how to read/write file in Java"</t>
   </si>
   <si>
+    <t>Minggu, 1-April-2018</t>
+  </si>
+  <si>
+    <t>Merancang tugas anggota setiap minggunya</t>
+  </si>
+  <si>
     <t>Selasa, 3-April-2018</t>
   </si>
   <si>
@@ -210,13 +216,25 @@
     <t>Selasa, 10-April-2018</t>
   </si>
   <si>
+    <t>MINGGU UTS</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>Selasa, 17-April-2018</t>
   </si>
   <si>
+    <t>Pembuatan mockup</t>
+  </si>
+  <si>
     <t>Selasa, 24-April-2018</t>
   </si>
   <si>
     <t>Selasa, 1-Mei-2018</t>
+  </si>
+  <si>
+    <t>Merancang ulang tugas anggota agar sesuai jadwal</t>
   </si>
   <si>
     <t>Selasa, 8-Mei-2018</t>
@@ -235,13 +253,17 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t>algoritma untu menyesuaikan data yang ada</t>
+      <t>algoritma untuk menyesuaikan data yang ada</t>
     </r>
   </si>
   <si>
     <t>Selasa, 15-Mei-2018</t>
+  </si>
+  <si>
+    <t>Mengimplementasikan filter</t>
   </si>
 </sst>
 </file>
@@ -250,11 +272,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,6 +294,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -279,10 +308,48 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -296,7 +363,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,53 +377,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,7 +416,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -379,40 +424,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -424,12 +452,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -442,73 +506,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,91 +626,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,6 +651,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -649,6 +686,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,30 +739,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -720,7 +748,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -738,130 +766,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1200,10 +1228,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A27" sqref="A26:A27"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1610,72 +1638,93 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="3"/>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="3" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="B27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>66</v>
+      </c>
+      <c r="C28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" t="s">
         <v>64</v>
       </c>
-      <c r="B29" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="3" t="s">
-        <v>65</v>
-      </c>
+    </row>
+    <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="3" t="s">
-        <v>66</v>
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="3" t="s">
-        <v>67</v>
+      <c r="A32" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="3"/>
+      <c r="A33" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="B33" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="3"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1"/>
+      <c r="B34" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="3" t="s">
-        <v>69</v>
+      <c r="A35" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="3" t="s">
-        <v>71</v>
+      <c r="A36" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/Logbook/Logbook_Fadly_Triansyah.xlsx
+++ b/Logbook/Logbook_Fadly_Triansyah.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87">
   <si>
     <t>Hari/tanggal</t>
   </si>
@@ -247,6 +247,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Sketching </t>
     </r>
     <r>
@@ -263,7 +270,31 @@
     <t>Selasa, 15-Mei-2018</t>
   </si>
   <si>
-    <t>Mengimplementasikan filter</t>
+    <t>Membuat algoritma utuh</t>
+  </si>
+  <si>
+    <t>Selasa, 22-Mei-2018</t>
+  </si>
+  <si>
+    <t>Mengubah algoritma ke bahasa java</t>
+  </si>
+  <si>
+    <t>Minggu, 27-Mei-2018</t>
+  </si>
+  <si>
+    <t>Pengetesan algoritma filter dengan file</t>
+  </si>
+  <si>
+    <t>Selasa, 29-Mei-2018</t>
+  </si>
+  <si>
+    <t>Memperbaiki eror pada algoritma filter</t>
+  </si>
+  <si>
+    <t>Minggu, 1-Juni-2018</t>
+  </si>
+  <si>
+    <t>Implement filter ke GUI</t>
   </si>
 </sst>
 </file>
@@ -271,10 +302,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -294,14 +325,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,7 +348,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,14 +403,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,53 +418,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -407,6 +432,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -422,7 +461,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -431,13 +469,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -452,19 +483,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,13 +603,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,31 +627,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,25 +639,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,79 +663,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,11 +677,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -690,17 +742,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -720,26 +766,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -748,15 +779,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -766,130 +797,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -903,11 +934,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1228,10 +1259,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1631,7 +1662,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B26" t="s">
@@ -1710,7 +1741,7 @@
       <c r="A35" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1725,6 +1756,43 @@
     <row r="37" spans="2:2">
       <c r="B37" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
